--- a/biology/Botanique/Cordycipitaceae/Cordycipitaceae.xlsx
+++ b/biology/Botanique/Cordycipitaceae/Cordycipitaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cordycipitacées
-Les Cordycipitacées (Cordycipitaceae) sont une famille de champignons de l'ordre des Hypocreales[1]. Ce sont des parasites de champignons ou de certains insectes.
+Les Cordycipitacées (Cordycipitaceae) sont une famille de champignons de l'ordre des Hypocreales. Ce sont des parasites de champignons ou de certains insectes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces ont des stromate ou subicule qui sont pâles ou très pigmentés et charnus. Leurs périthèces sont superficiels à complètement immergés dans le substrat, et orientés perpendiculairement à la surface du stromate. Les asques sont cylindriques avec une pointe d'asque épaissie. Les ascospores sont généralement cylindriques, contiennent plusieurs septa et se désarticulent en spores partielles ou restent intactes à maturité[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces ont des stromate ou subicule qui sont pâles ou très pigmentés et charnus. Leurs périthèces sont superficiels à complètement immergés dans le substrat, et orientés perpendiculairement à la surface du stromate. Les asques sont cylindriques avec une pointe d'asque épaissie. Les ascospores sont généralement cylindriques, contiennent plusieurs septa et se désarticulent en spores partielles ou restent intactes à maturité.
 </t>
         </is>
       </c>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Systématique
-La famille a été publiée pour la première fois en 1969 par le mycologue Hanns Kreisel, mais la dénomination n'était pas valide selon le code du Code international de nomenclature pour les algues, les champignons et les plantes. Il a été valablement publié en 2007[2].
-Liste des genres
-Selon NCBI  (15 août 2023)[3] :
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille a été publiée pour la première fois en 1969 par le mycologue Hanns Kreisel, mais la dénomination n'était pas valide selon le code du Code international de nomenclature pour les algues, les champignons et les plantes. Il a été valablement publié en 2007.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cordycipitaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cordycipitaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (15 août 2023) :
 Akanthomyces
 Amphichorda
 Ascopolyporus
@@ -579,7 +633,7 @@
 Samsoniella
 Simplicillium
 Torrubiella
-Selon Catalogue of Life                                   (15 août 2023)[4] :
+Selon Catalogue of Life                                   (15 août 2023) :
 Akanthomyces
 Amphichorda
 Ascopolyporus
